--- a/data/experiment data.xlsx
+++ b/data/experiment data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5F28C77B-1324-4CA2-8CA0-8490BD4EC2CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DAE389BD-6DB5-409D-B6F9-F20070B1C973}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="6">
   <si>
     <t>∞</t>
   </si>
@@ -237,6 +237,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -246,8 +248,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="好" xfId="1" builtinId="26"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+      <c r="A2" s="28">
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -646,7 +646,7 @@
       <c r="X2" s="16"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="6">
         <v>4</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="X3" s="17"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="6">
         <v>5</v>
       </c>
@@ -750,7 +750,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="A7" s="29">
         <v>2</v>
       </c>
       <c r="B7" s="6">
@@ -768,7 +768,7 @@
       <c r="X7" s="17"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="X8" s="8"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="X9" s="8"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="11">
         <v>10</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="X11" s="8"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="A12" s="29">
         <v>4</v>
       </c>
       <c r="B12" s="6">
@@ -923,7 +923,7 @@
       <c r="X12" s="8"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="6">
         <v>5</v>
       </c>
@@ -957,7 +957,7 @@
       <c r="X13" s="8"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="11">
         <v>10</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="X14" s="20"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="A15" s="28">
         <v>5</v>
       </c>
       <c r="B15" s="21">
@@ -1023,7 +1023,7 @@
       <c r="X15" s="5"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="14">
         <v>4</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="X16" s="8"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="14">
         <v>5</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="X17" s="8"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="14">
         <v>7</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="X18" s="8"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="14">
         <v>15</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="X19" s="8"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="14">
         <v>27</v>
       </c>
@@ -1177,7 +1177,7 @@
       <c r="X20" s="8"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="22">
         <v>30</v>
       </c>
@@ -1222,7 +1222,9 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="23"/>
+      <c r="H22" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1302,7 +1304,7 @@
       <c r="X24" s="8"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+      <c r="A25" s="28">
         <v>8</v>
       </c>
       <c r="B25" s="3">
@@ -1313,7 +1315,9 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1332,18 +1336,18 @@
       <c r="X25" s="5"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="11">
         <v>5</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="27" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="11"/>
@@ -1366,7 +1370,7 @@
       <c r="X26" s="20"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
+      <c r="A27" s="29">
         <v>10</v>
       </c>
       <c r="B27" s="6">
@@ -1398,7 +1402,7 @@
       <c r="X27" s="17"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="6">
         <v>8</v>
       </c>
@@ -1428,7 +1432,7 @@
       <c r="X28" s="8"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="6">
         <v>9</v>
       </c>
@@ -1464,7 +1468,7 @@
       <c r="X29" s="17"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="6">
         <v>10</v>
       </c>
@@ -1494,7 +1498,7 @@
       <c r="X30" s="17"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="6">
         <v>11</v>
       </c>
@@ -1524,7 +1528,7 @@
       <c r="X31" s="8"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="11">
         <v>15</v>
       </c>
@@ -1556,7 +1560,7 @@
       <c r="X32" s="20"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
+      <c r="A33" s="28">
         <v>12</v>
       </c>
       <c r="B33" s="3">
@@ -1596,7 +1600,7 @@
       <c r="X33" s="5"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1622,7 +1626,7 @@
       <c r="X34" s="20"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
+      <c r="A35" s="28">
         <v>14</v>
       </c>
       <c r="B35" s="3">
@@ -1656,7 +1660,7 @@
       <c r="X35" s="5"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="6">
         <v>8</v>
       </c>
@@ -1686,7 +1690,7 @@
       <c r="X36" s="8"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="6">
         <v>10</v>
       </c>
@@ -1718,7 +1722,7 @@
       <c r="X37" s="8"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="6">
         <v>13</v>
       </c>
@@ -1750,7 +1754,7 @@
       <c r="X38" s="8"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="11">
         <v>15</v>
       </c>
@@ -1780,7 +1784,7 @@
       <c r="X39" s="20"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="26">
+      <c r="A40" s="28">
         <v>15</v>
       </c>
       <c r="B40" s="3">
@@ -1812,7 +1816,7 @@
       <c r="X40" s="16"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="6">
         <v>10</v>
       </c>
@@ -1842,7 +1846,7 @@
       <c r="X41" s="17"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="6">
         <v>12</v>
       </c>
@@ -1874,7 +1878,7 @@
       <c r="X42" s="8"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="6">
         <v>13.5</v>
       </c>
@@ -1912,7 +1916,7 @@
       <c r="X43" s="17"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="6">
         <v>15</v>
       </c>
@@ -1942,7 +1946,7 @@
       <c r="X44" s="8"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -1972,7 +1976,7 @@
       <c r="X45" s="19"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
+      <c r="A46" s="28">
         <v>16</v>
       </c>
       <c r="B46" s="3">
@@ -2014,7 +2018,7 @@
       <c r="X46" s="5"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="6">
         <v>15</v>
       </c>
@@ -2044,7 +2048,7 @@
       <c r="X47" s="8"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="6">
         <v>30</v>
       </c>
@@ -2074,7 +2078,7 @@
       <c r="X48" s="8"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="10" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +2108,7 @@
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
+      <c r="A50" s="28">
         <v>18</v>
       </c>
       <c r="B50" s="21">
@@ -2144,7 +2148,7 @@
       <c r="X50" s="5"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
+      <c r="A51" s="30"/>
       <c r="B51" s="22">
         <v>15</v>
       </c>
@@ -2174,7 +2178,7 @@
       <c r="X51" s="20"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" s="26">
+      <c r="A52" s="28">
         <v>20</v>
       </c>
       <c r="B52" s="21">
@@ -2210,7 +2214,7 @@
       <c r="X52" s="5"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="14">
         <v>6</v>
       </c>
@@ -2240,7 +2244,7 @@
       <c r="X53" s="8"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="14">
         <v>12</v>
       </c>
@@ -2270,7 +2274,7 @@
       <c r="X54" s="8"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="14">
         <v>15</v>
       </c>
@@ -2300,7 +2304,7 @@
       <c r="X55" s="8"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="14">
         <v>20</v>
       </c>
@@ -2330,7 +2334,7 @@
       <c r="X56" s="8"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="14">
         <v>25</v>
       </c>
@@ -2360,7 +2364,7 @@
       <c r="X57" s="8"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="14">
         <v>27</v>
       </c>
@@ -2390,7 +2394,7 @@
       <c r="X58" s="8"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="22">
         <v>30</v>
       </c>
@@ -2426,6 +2430,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A39"/>
     <mergeCell ref="A52:A59"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="A46:A49"/>
@@ -2433,11 +2442,6 @@
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
